--- a/documents/画面遷移図.xlsx
+++ b/documents/画面遷移図.xlsx
@@ -5,29 +5,40 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\new\B-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369A2DC8-C7A4-4771-A47B-0E8BCC9081A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A10435A-9D6A-4677-ADCD-437F2776D308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6375" yWindow="345" windowWidth="13560" windowHeight="10455" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1710" yWindow="210" windowWidth="15375" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="1" r:id="rId1"/>
-    <sheet name="ログイン画面" sheetId="9" r:id="rId2"/>
-    <sheet name="新規登録画面 " sheetId="10" r:id="rId3"/>
-    <sheet name="ホーム画面" sheetId="3" r:id="rId4"/>
-    <sheet name="マイページ画面" sheetId="6" r:id="rId5"/>
-    <sheet name="プロフィール画面" sheetId="4" r:id="rId6"/>
-    <sheet name="アンケート画面" sheetId="8" r:id="rId7"/>
-    <sheet name="アドバイス画面" sheetId="5" r:id="rId8"/>
+    <sheet name="ログイン" sheetId="9" r:id="rId2"/>
+    <sheet name="新規登録" sheetId="10" r:id="rId3"/>
+    <sheet name="ホーム" sheetId="3" r:id="rId4"/>
+    <sheet name="マイページ" sheetId="6" r:id="rId5"/>
+    <sheet name="プロフィール" sheetId="4" r:id="rId6"/>
+    <sheet name="アンケート掲示板" sheetId="8" r:id="rId7"/>
+    <sheet name="アドバイス" sheetId="5" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="10">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -94,6 +105,13 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>ヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宮本浩平</t>
+    <rPh sb="0" eb="4">
+      <t>ミヤモトコウヘイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -276,7 +294,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>ログイン画面</a:t>
+            <a:t>ログイン</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
         </a:p>
@@ -450,7 +468,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>新規登録画面</a:t>
+            <a:t>新規登録</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
         </a:p>
@@ -512,7 +530,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>ホーム画面</a:t>
+            <a:t>ホーム</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
         </a:p>
@@ -664,7 +682,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>ログイン画面</a:t>
+            <a:t>ログイン</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
         </a:p>
@@ -838,7 +856,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>新規登録画面</a:t>
+            <a:t>新規登録</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
         </a:p>
@@ -900,7 +918,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>ホーム画面</a:t>
+            <a:t>ホーム</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
         </a:p>
@@ -915,15 +933,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>11907</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>690561</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>511968</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:colOff>488155</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>154781</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -939,7 +957,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5405437" y="1440657"/>
+          <a:off x="5381624" y="1607344"/>
           <a:ext cx="2559844" cy="642937"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -967,7 +985,15 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>処理結果画面</a:t>
+            <a:t>処理結果</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>新規登録</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
         </a:p>
@@ -978,15 +1004,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>404811</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>464343</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
+      <xdr:colOff>631031</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>59534</xdr:rowOff>
+      <xdr:rowOff>154781</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1001,8 +1027,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3662361" y="1609725"/>
-          <a:ext cx="1595438" cy="88109"/>
+          <a:off x="3726656" y="1750219"/>
+          <a:ext cx="1595438" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1034,15 +1060,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>642937</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>-1</xdr:rowOff>
+      <xdr:colOff>654843</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>119062</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>35718</xdr:rowOff>
+      <xdr:colOff>130968</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1057,8 +1083,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8096250" y="1595437"/>
-          <a:ext cx="1547812" cy="35719"/>
+          <a:off x="8108156" y="1881187"/>
+          <a:ext cx="1547812" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1141,7 +1167,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>新規登録画面</a:t>
+            <a:t>新規登録</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
         </a:p>
@@ -1152,15 +1178,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>214313</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>202407</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>11907</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1175,7 +1201,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9739313" y="1428750"/>
+          <a:off x="9727407" y="1619250"/>
           <a:ext cx="2559844" cy="642937"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -1203,7 +1229,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>ログイン画面</a:t>
+            <a:t>ログイン</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
         </a:p>
@@ -1288,101 +1314,34 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>23815</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>18708</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>511970</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>151378</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="フローチャート: 処理 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{789FE93C-DFB4-4BFF-A252-57221C4017D8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5405440" y="2280896"/>
-          <a:ext cx="2559843" cy="632732"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>プロフィール画面</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>367393</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>91849</xdr:rowOff>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>121446</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>607218</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>130969</xdr:rowOff>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>121446</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{708505AF-1355-42BE-B245-3B96C8FCA116}"/>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6633F0A5-4964-4C06-9782-716C5D739971}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3629706" y="1853974"/>
-          <a:ext cx="1668575" cy="705870"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3805238" y="2050259"/>
+          <a:ext cx="1314449" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1411,34 +1370,217 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>416719</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="466794" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47EA9FFE-74DF-4630-89FD-B0150FE43C92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8560594" y="1964531"/>
+          <a:ext cx="466794" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>成功</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>386103</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:colOff>1021557</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="466794" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C951A4D-5C7C-4058-9981-9CFBA4612271}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4283870" y="2152650"/>
+          <a:ext cx="466794" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>失敗</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>23815</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>18708</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>511970</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>151378</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="フローチャート: 処理 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{789FE93C-DFB4-4BFF-A252-57221C4017D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5405440" y="2280896"/>
+          <a:ext cx="2559843" cy="632732"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>プロフィール検索</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>367393</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>91849</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>631031</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>32318</xdr:rowOff>
+      <xdr:colOff>607218</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20F8D9FB-C89A-4D6E-838B-37393C6613B5}"/>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{708505AF-1355-42BE-B245-3B96C8FCA116}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3648416" y="1500187"/>
-          <a:ext cx="1673678" cy="127569"/>
+        <a:xfrm>
+          <a:off x="3629706" y="1853974"/>
+          <a:ext cx="1668575" cy="705870"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1469,219 +1611,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>321469</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>35718</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>321469</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>59532</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>386103</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>631031</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>32318</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="直線コネクタ 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8534AF99-DC35-4E36-AA84-AB84650DE0BB}"/>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20F8D9FB-C89A-4D6E-838B-37393C6613B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7065169" y="207168"/>
-          <a:ext cx="0" cy="538164"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>25515</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>3402</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>513671</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>146277</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="フローチャート: 処理 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71770EBC-B992-4615-8D3E-8C62AF8C44D2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5407140" y="1265465"/>
-          <a:ext cx="2559844" cy="642937"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>マイページ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
-            <a:t>/</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>編集画面</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>6805</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>321470</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>159886</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="フローチャート: 処理 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05C4C62B-144A-4A89-A885-BFBD3381F05E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1057955" y="1694091"/>
-          <a:ext cx="2529229" cy="683759"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>ホーム画面</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>59534</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>631031</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="直線矢印コネクタ 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ECC8EAD-0AF6-413C-A1BB-CBE773AAF148}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3643312" y="1988347"/>
-          <a:ext cx="1678782" cy="1559715"/>
+        <a:xfrm flipV="1">
+          <a:off x="3648416" y="1500187"/>
+          <a:ext cx="1673678" cy="127569"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1713,22 +1668,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>18709</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:colOff>25515</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>3402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>506864</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>-1</xdr:rowOff>
+      <xdr:colOff>513671</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>146277</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="フローチャート: 処理 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABE76DF9-1FD1-4544-9910-9444473BE2AA}"/>
+        <xdr:cNvPr id="16" name="フローチャート: 処理 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71770EBC-B992-4615-8D3E-8C62AF8C44D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1736,8 +1691,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5400334" y="3286125"/>
-          <a:ext cx="2559843" cy="642937"/>
+          <a:off x="5407140" y="1265465"/>
+          <a:ext cx="2559844" cy="642937"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -1764,7 +1719,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>アンケート掲示板画面</a:t>
+            <a:t>マイページ</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
         </a:p>
@@ -1774,23 +1729,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>25514</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>513669</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>6805</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>321470</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>159886</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="フローチャート: 処理 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDFD58DC-7737-483A-9366-AE2DFDE0B743}"/>
+        <xdr:cNvPr id="17" name="フローチャート: 処理 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05C4C62B-144A-4A89-A885-BFBD3381F05E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1798,8 +1753,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5407139" y="4262439"/>
-          <a:ext cx="2559843" cy="642937"/>
+          <a:off x="1057955" y="1694091"/>
+          <a:ext cx="2529229" cy="683759"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -1826,7 +1781,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>アドバイス検索画面</a:t>
+            <a:t>ホーム</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
         </a:p>
@@ -1837,22 +1792,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>369093</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>71441</xdr:rowOff>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>59534</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>59531</xdr:rowOff>
+      <xdr:colOff>631031</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="直線矢印コネクタ 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0A0C286-ED6A-4238-940C-F7F10E023666}"/>
+        <xdr:cNvPr id="18" name="直線矢印コネクタ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ECC8EAD-0AF6-413C-A1BB-CBE773AAF148}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1860,8 +1815,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3631406" y="2166941"/>
-          <a:ext cx="1631156" cy="2488403"/>
+          <a:off x="3643312" y="1988347"/>
+          <a:ext cx="1678782" cy="1559715"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1890,30 +1845,25 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>22112</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>37418</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>319769</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>3400</xdr:rowOff>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>18709</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>506864</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="フローチャート: 処理 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E096C2D1-E8AB-4883-9A25-2D0C2550D7D1}"/>
+        <xdr:cNvPr id="19" name="フローチャート: 処理 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABE76DF9-1FD1-4544-9910-9444473BE2AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1921,8 +1871,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1056255" y="1724704"/>
-          <a:ext cx="2529228" cy="673553"/>
+          <a:off x="5400334" y="3286125"/>
+          <a:ext cx="2559843" cy="642937"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -1949,15 +1899,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>マイページ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
-            <a:t>/</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>編集画面</a:t>
+            <a:t>アンケート掲示板</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
         </a:p>
@@ -1967,32 +1909,94 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>25514</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>513669</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="フローチャート: 処理 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDFD58DC-7737-483A-9366-AE2DFDE0B743}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5407139" y="4262439"/>
+          <a:ext cx="2559843" cy="642937"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>アドバイス検索</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>464345</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>163285</xdr:rowOff>
+      <xdr:colOff>369093</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>71441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>544286</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>20412</xdr:rowOff>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9ACE9E8-10C8-4158-BAE1-7A183FAC3794}"/>
+        <xdr:cNvPr id="26" name="直線矢印コネクタ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0A0C286-ED6A-4238-940C-F7F10E023666}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3730059" y="1850571"/>
-          <a:ext cx="1508691" cy="210912"/>
+        <a:xfrm>
+          <a:off x="3631406" y="2166941"/>
+          <a:ext cx="1631156" cy="2488403"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2023,23 +2027,85 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>612321</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>81642</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>35039</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57152</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>56468</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>117361</xdr:rowOff>
+      <xdr:colOff>523194</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>33339</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="フローチャート: 処理 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65A97B4A-8116-41BE-88E9-F80C3EE82358}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5416664" y="5153027"/>
+          <a:ext cx="2559843" cy="642937"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>ログアウト</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>83343</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>595312</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64197B4C-5F8A-46B6-84B8-2250441BA561}"/>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7F0EBFA-9E42-4F91-8958-EA2E9D8015C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2047,8 +2113,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6667500" y="258535"/>
-          <a:ext cx="804861" cy="389505"/>
+          <a:off x="3643312" y="2345531"/>
+          <a:ext cx="1643063" cy="3059906"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2077,80 +2143,30 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>321469</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>35718</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>321469</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>59532</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="直線コネクタ 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6E9DA2D-74FB-4DEB-A617-1A31957533CD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7065169" y="207168"/>
-          <a:ext cx="0" cy="538164"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>22112</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>37418</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>319769</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>173492</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>511970</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>149679</xdr:rowOff>
+      <xdr:rowOff>3400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="フローチャート: 処理 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{228C8347-FD00-4AB3-A7F3-503B0B8F1AFF}"/>
+        <xdr:cNvPr id="2" name="フローチャート: 処理 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E096C2D1-E8AB-4883-9A25-2D0C2550D7D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2158,8 +2174,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12202205" y="2568349"/>
-          <a:ext cx="2529229" cy="683759"/>
+          <a:off x="1056255" y="1724704"/>
+          <a:ext cx="2529228" cy="673553"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -2186,7 +2202,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>編集画面</a:t>
+            <a:t>マイページ</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
         </a:p>
@@ -2196,23 +2212,326 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>464345</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>13608</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>585107</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>20412</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9ACE9E8-10C8-4158-BAE1-7A183FAC3794}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3730059" y="2054679"/>
+          <a:ext cx="1549512" cy="6804"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>54427</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>488156</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>30614</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="フローチャート: 処理 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96EC926C-650D-4A85-A54F-CF894132A44F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5374821" y="1741713"/>
+          <a:ext cx="2529228" cy="683758"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>処理結果</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>22112</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>10204</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>319769</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>153079</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="フローチャート: 処理 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{827A6019-159D-45E6-815F-23BA7D491632}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1056255" y="1697490"/>
+          <a:ext cx="2529228" cy="673553"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>プロフィール検索</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>369094</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>27215</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>6805</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C4487D5-D3A4-4C83-B745-174093DC9FA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3634808" y="2217964"/>
+          <a:ext cx="1086871" cy="6805"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>23813</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>34021</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>511971</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>187102</xdr:rowOff>
+      <xdr:colOff>282347</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>91849</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>90148</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>68037</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="フローチャート: 処理 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44BA219A-5EE3-44DA-82F2-13C15DC78224}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12460740" y="1602242"/>
+          <a:ext cx="2529229" cy="683759"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>マイページ画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>268740</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>102056</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>76541</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>159886</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="フローチャート: 処理 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41F86F71-B0F0-4A6A-8084-E9576B0E67E3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E497CFD7-BA3D-46FF-91EC-1DF448E81376}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2220,7 +2539,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12202206" y="387807"/>
+          <a:off x="12447133" y="809627"/>
           <a:ext cx="2529229" cy="683759"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -2266,23 +2585,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>88445</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>100356</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>311602</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>100356</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47B1FBB0-52EA-4642-9681-38F15D0DE320}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7FC7580-16E4-4CDA-8D33-63644F1062C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2290,443 +2609,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12266838" y="2318320"/>
-          <a:ext cx="903514" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>68037</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>583407</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>34018</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="フローチャート: 処理 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36833C08-936D-4F9E-B600-BCEB97A2AD79}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12273643" y="1224644"/>
-          <a:ext cx="2529228" cy="673553"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>アドバイス機能</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>136071</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>474549</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>112258</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="フローチャート: 処理 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96EC926C-650D-4A85-A54F-CF894132A44F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5361214" y="1469571"/>
-          <a:ext cx="2529228" cy="683758"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>処理結果画面</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>22112</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>10204</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>319769</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>153079</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="フローチャート: 処理 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{827A6019-159D-45E6-815F-23BA7D491632}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1056255" y="1697490"/>
-          <a:ext cx="2529228" cy="673553"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>プロフィール画面</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>369094</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>6805</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>517072</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C4487D5-D3A4-4C83-B745-174093DC9FA6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3634808" y="2224769"/>
-          <a:ext cx="1576728" cy="1326695"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>282347</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>91849</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>90148</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>68037</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="フローチャート: 処理 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44BA219A-5EE3-44DA-82F2-13C15DC78224}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12460740" y="1602242"/>
-          <a:ext cx="2529229" cy="683759"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>マイページ画面</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>268740</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>102056</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>76541</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>159886</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="フローチャート: 処理 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E497CFD7-BA3D-46FF-91EC-1DF448E81376}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12447133" y="809627"/>
-          <a:ext cx="2529229" cy="683759"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx2">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>ホーム画面</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>68037</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>81642</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7FC7580-16E4-4CDA-8D33-63644F1062C2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6626679" y="2286001"/>
-          <a:ext cx="0" cy="898070"/>
+          <a:off x="6164036" y="2517321"/>
+          <a:ext cx="0" cy="748393"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2951,16 +2835,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>27215</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>204107</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>515372</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
+      <xdr:colOff>11907</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85044</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2975,7 +2859,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5402036" y="1524000"/>
+          <a:off x="4898571" y="3388178"/>
           <a:ext cx="2529229" cy="683759"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -3003,7 +2887,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>個人プロフィール画面</a:t>
+            <a:t>個人プロフィール</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
         </a:p>
@@ -3013,16 +2897,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>13608</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>27212</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>501765</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>3399</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>149680</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>13605</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>637837</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>166686</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3037,7 +2921,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5388429" y="3306533"/>
+          <a:off x="4844144" y="1700891"/>
           <a:ext cx="2529229" cy="683759"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -3065,7 +2949,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>検索結果一覧画面</a:t>
+            <a:t>プロフィール検索結果</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
         </a:p>
@@ -3135,25 +3019,92 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>8505</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>173489</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>401411</xdr:colOff>
+      <xdr:colOff>306162</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>139471</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="フローチャート: 処理 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F69A60A1-AD6B-47E9-8B22-764AEBB33B8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1042648" y="1683882"/>
+          <a:ext cx="2529228" cy="673553"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>アンケート掲示板</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>489858</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>40822</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:colOff>435429</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>100358</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="直線矢印コネクタ 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{240D111A-348C-4DFF-9CB0-7F02B7506348}"/>
+        <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E7FACBE-CEC8-4CFF-8EDF-4B3B52913F95}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3161,8 +3112,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3667125" y="1864179"/>
-          <a:ext cx="1598839" cy="100358"/>
+          <a:off x="3755572" y="1905001"/>
+          <a:ext cx="1374321" cy="54428"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3191,30 +3142,25 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>8505</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>173489</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>306162</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>139471</xdr:rowOff>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>608919</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>416719</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="フローチャート: 処理 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F69A60A1-AD6B-47E9-8B22-764AEBB33B8A}"/>
+        <xdr:cNvPr id="6" name="フローチャート: 処理 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{230DADFF-EE9A-4225-98C3-7029ECDAB350}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3222,8 +3168,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1042648" y="1683882"/>
-          <a:ext cx="2529228" cy="673553"/>
+          <a:off x="5303383" y="3929062"/>
+          <a:ext cx="2529229" cy="683759"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -3250,7 +3196,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>アンケート掲示板画面</a:t>
+            <a:t>処理結果</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
         </a:p>
@@ -3261,31 +3207,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>503465</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>40822</xdr:rowOff>
+      <xdr:colOff>483052</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>32321</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>449036</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>612322</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E7FACBE-CEC8-4CFF-8EDF-4B3B52913F95}"/>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53BF2E36-1850-4006-B08E-47CC690D5355}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3769179" y="1728108"/>
-          <a:ext cx="1374321" cy="54428"/>
+        <a:xfrm>
+          <a:off x="3748766" y="2250285"/>
+          <a:ext cx="1558020" cy="661644"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3316,78 +3262,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>646340</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>62934</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>362291</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>103754</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>362291</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>127567</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="直線コネクタ 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F108DB6E-908E-4013-8A00-8892EA8326EB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7778184" y="103754"/>
-          <a:ext cx="0" cy="554492"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>10205</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>23813</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>498362</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>454139</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>39121</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="フローチャート: 処理 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{230DADFF-EE9A-4225-98C3-7029ECDAB350}"/>
+        <xdr:cNvPr id="9" name="フローチャート: 処理 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{474F9FE8-753E-49E0-B6F0-3D75A83A6635}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3395,8 +3286,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9467169" y="2418670"/>
-          <a:ext cx="2529229" cy="683759"/>
+          <a:off x="5340804" y="1573327"/>
+          <a:ext cx="2529228" cy="683758"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -3423,7 +3314,23 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>処理結果画面</a:t>
+            <a:t>アンケート</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>回答</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>集計</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
         </a:p>
@@ -3433,23 +3340,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>636134</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>102057</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>443934</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>159888</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>653144</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>460943</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>6804</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="フローチャート: 処理 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1350F1E9-BA2C-4C59-89E6-C659AC6E246C}"/>
+        <xdr:cNvPr id="10" name="フローチャート: 処理 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8492F344-C5FC-4218-B844-F071CB174D27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3457,20 +3364,12 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14855598" y="632736"/>
-          <a:ext cx="2529229" cy="683759"/>
+          <a:off x="5347608" y="2612572"/>
+          <a:ext cx="2529228" cy="673553"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx2">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -3493,195 +3392,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>ホーム画面</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>387802</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>113964</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>517072</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>68036</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53BF2E36-1850-4006-B08E-47CC690D5355}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3653516" y="2155035"/>
-          <a:ext cx="1558020" cy="661644"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>673554</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>22113</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>481353</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>175192</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="フローチャート: 処理 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{474F9FE8-753E-49E0-B6F0-3D75A83A6635}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5368018" y="1355613"/>
-          <a:ext cx="2529228" cy="683758"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>回答</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
-            <a:t>/</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>集計画面</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>13608</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>27215</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>501764</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>170089</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="フローチャート: 処理 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8492F344-C5FC-4218-B844-F071CB174D27}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5388429" y="2422072"/>
-          <a:ext cx="2529228" cy="673553"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>アンケート投稿画面</a:t>
+            <a:t>アンケート投稿</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
         </a:p>
@@ -3758,86 +3469,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>554490</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>78242</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>362290</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>54430</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="フローチャート: 処理 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD67E00C-ABB4-4B30-B691-09B0BCEBAA97}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14773954" y="1942421"/>
-          <a:ext cx="2529229" cy="683759"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>処理結果</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
-            <a:t>×</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>ページ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>40820</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>421822</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>557892</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>122465</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>585107</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3852,8 +3493,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8137070" y="2748643"/>
-          <a:ext cx="1061359" cy="13607"/>
+          <a:off x="6613071" y="3401786"/>
+          <a:ext cx="27215" cy="435428"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3882,101 +3523,34 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>22116</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>10204</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>510272</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>153078</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="フローチャート: 処理 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46DBACCD-2FDC-4535-BEAA-ED3DFB892226}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5396937" y="2581954"/>
-          <a:ext cx="2529228" cy="673553"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>検索結果画面</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>450737</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>74841</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>122464</xdr:rowOff>
+      <xdr:colOff>506185</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>204107</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>84366</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23781E1D-CB12-4005-A279-07D078D19293}"/>
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B390FB8C-DAF6-484B-BA73-3B56781F0F33}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3716451" y="1762127"/>
-          <a:ext cx="1549513" cy="47623"/>
+        <a:xfrm flipV="1">
+          <a:off x="7922078" y="1945822"/>
+          <a:ext cx="378279" cy="2723"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4007,32 +3581,102 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>435429</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>122466</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>612322</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>163286</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285068</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>40141</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>92868</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>16329</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="フローチャート: 処理 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64E58B1C-AE8A-4F9B-A107-2D39454799BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8381318" y="1550534"/>
+          <a:ext cx="2529229" cy="683759"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>処理結果</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>アンケート</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>478971</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>163285</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0E749CE-AD35-4FEA-9DFC-F672051672D5}"/>
+        <xdr:cNvPr id="25" name="直線矢印コネクタ 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02E5F234-9999-4F4F-9721-E83E8E47BE69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3701143" y="1986645"/>
-          <a:ext cx="1605643" cy="925284"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7894864" y="1785258"/>
+          <a:ext cx="364671" cy="10885"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4063,78 +3707,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>321469</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>13608</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>35718</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>321469</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>59532</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="直線コネクタ 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C612137E-A64E-4DBD-A928-BBE089F5A16E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7065169" y="207168"/>
-          <a:ext cx="0" cy="538164"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>10206</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>498363</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>501765</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57831</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="フローチャート: 処理 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12D522AD-5217-4467-B557-BDD7599A31EE}"/>
+        <xdr:cNvPr id="28" name="フローチャート: 処理 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2C7F5F1-3795-45C8-9B1F-D787A9737FE1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4142,7 +3731,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5385027" y="1534205"/>
+          <a:off x="5388429" y="258536"/>
           <a:ext cx="2529229" cy="683759"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -4170,15 +3759,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>登録</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
-            <a:t>/</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>編集画面</a:t>
+            <a:t>処理結果</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
         </a:p>
@@ -4188,102 +3769,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>200705</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>122465</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>13608</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>61235</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>8505</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>37423</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="フローチャート: 処理 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF358764-879F-4F1B-B6AB-63846F93224F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14420169" y="1394735"/>
-          <a:ext cx="2529229" cy="683759"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx2">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>ホーム画面</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>605517</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>168392</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>598714</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>122464</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7ECE395-0DE0-4735-ABDC-263F291CDD5D}"/>
+        <xdr:cNvPr id="29" name="直線矢印コネクタ 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53D26309-EB42-4EFD-91A3-981EB493F2DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8021410" y="1678785"/>
-          <a:ext cx="1353911" cy="130965"/>
+        <a:xfrm flipV="1">
+          <a:off x="6721928" y="1006929"/>
+          <a:ext cx="27216" cy="421821"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4312,25 +3823,146 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>34017</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>171791</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>522173</xdr:colOff>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>462643</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>147978</xdr:rowOff>
-    </xdr:to>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="466794" cy="275717"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="フローチャート: 処理 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{271D5FF7-B1CD-4439-B9D2-E52495BC7E91}"/>
+        <xdr:cNvPr id="32" name="テキスト ボックス 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{983227DB-96EB-4176-9BCC-0623A71523E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7878536" y="2095500"/>
+          <a:ext cx="466794" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>回答</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>149679</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>244929</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="466794" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="テキスト ボックス 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD035A6C-65D8-480D-9A4C-D839B2C11974}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6885215" y="1129393"/>
+          <a:ext cx="466794" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>削除</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>580009</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>91846</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>387808</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>57828</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="フローチャート: 処理 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46DBACCD-2FDC-4535-BEAA-ED3DFB892226}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4338,8 +3970,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9490981" y="1505291"/>
-          <a:ext cx="2529228" cy="683758"/>
+          <a:off x="5274473" y="3901846"/>
+          <a:ext cx="2529228" cy="673553"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -4366,7 +3998,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>処理結果画面</a:t>
+            <a:t>アドバイス検索結果</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
         </a:p>
@@ -4376,23 +4008,135 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>13608</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>450737</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>13608</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
+      <xdr:rowOff>74841</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23781E1D-CB12-4005-A279-07D078D19293}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3716451" y="1762127"/>
+          <a:ext cx="1549513" cy="47623"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>311265</xdr:colOff>
+      <xdr:colOff>435429</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>122466</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>408215</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0E749CE-AD35-4FEA-9DFC-F672051672D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3701143" y="1986645"/>
+          <a:ext cx="1401536" cy="2136319"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>10206</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>498363</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>156483</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="フローチャート: 処理 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF0DC814-5801-4B00-8EB1-160AABC672E5}"/>
+        <xdr:cNvPr id="6" name="フローチャート: 処理 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12D522AD-5217-4467-B557-BDD7599A31EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4400,8 +4144,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1047751" y="1700894"/>
-          <a:ext cx="2529228" cy="673553"/>
+          <a:off x="5385027" y="1534205"/>
+          <a:ext cx="2529229" cy="683759"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -4428,7 +4172,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>アドバイス検索画面</a:t>
+            <a:t>アドバイス登録</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
         </a:p>
@@ -4438,23 +4182,79 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>185399</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>146274</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>673555</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>112255</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>639536</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>598714</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7ECE395-0DE0-4735-ABDC-263F291CDD5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8055429" y="1918607"/>
+          <a:ext cx="1319892" cy="27214"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>34017</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171791</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>522173</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>147978</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="フローチャート: 処理 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92B3CBAA-34CE-46CD-A097-44CCCB064F23}"/>
+        <xdr:cNvPr id="9" name="フローチャート: 処理 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{271D5FF7-B1CD-4439-B9D2-E52495BC7E91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4462,8 +4262,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14404863" y="2364238"/>
-          <a:ext cx="2529228" cy="673553"/>
+          <a:off x="9490981" y="1505291"/>
+          <a:ext cx="2529228" cy="683758"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -4490,12 +4290,502 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>検索結果画面</a:t>
+            <a:t>処理結果</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>アドバイス</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>13608</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>13608</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>311265</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>156483</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="フローチャート: 処理 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF0DC814-5801-4B00-8EB1-160AABC672E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047751" y="1700894"/>
+          <a:ext cx="2529228" cy="673553"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>アドバイス検索</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>40142</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>135391</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>528299</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>111579</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="フローチャート: 処理 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{124C8E1C-A897-4198-B0AF-D4A03352EED0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5414963" y="2707141"/>
+          <a:ext cx="2529229" cy="683759"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>アドバイス</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>編集検索</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>276565</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>63956</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>312964</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E027B32B-F088-4D02-928E-753BCDC07889}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6331744" y="2281920"/>
+          <a:ext cx="36399" cy="357866"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>40821</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>81644</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>81644</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC38EBC4-F8BD-4A34-B2E2-6ED9832D9432}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6776357" y="2299608"/>
+          <a:ext cx="13607" cy="353786"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>233362</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>165326</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>41162</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>141514</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="フローチャート: 処理 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C36F2B8-7A41-4F72-8B92-F77CE5BED64F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9009969" y="2737076"/>
+          <a:ext cx="2529229" cy="683759"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>アドバイス</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>編集検索結果</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>176893</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>625929</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線矢印コネクタ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2EB6794-E73F-4F02-ACA2-3CEA512A4114}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8273143" y="3061607"/>
+          <a:ext cx="449036" cy="13607"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>125186</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>13608</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>136072</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>111579</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線矢印コネクタ 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C1F3370-6AA4-4111-AC59-8B4FE4E6ECE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10262507" y="2231572"/>
+          <a:ext cx="10886" cy="451757"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>29936</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>489857</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>16329</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直線矢印コネクタ 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD3AB12F-50BA-4921-9479-5BCBD9F1904C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8126186" y="1700893"/>
+          <a:ext cx="1140278" cy="2722"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4824,8 +5114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4865,13 +5155,17 @@
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="5">
+        <v>44354</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
@@ -4891,7 +5185,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4931,13 +5225,17 @@
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="5">
+        <v>44354</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
@@ -4957,7 +5255,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4997,13 +5295,17 @@
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="5">
+        <v>44354</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
@@ -5022,8 +5324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5063,13 +5365,17 @@
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="5">
+        <v>44354</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
@@ -5088,7 +5394,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5128,13 +5434,17 @@
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="5">
+        <v>44354</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
@@ -5153,7 +5463,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5193,13 +5503,17 @@
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="5">
+        <v>44354</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
@@ -5217,8 +5531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC5B896-C430-4109-8320-7CE17F2F30C7}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5258,13 +5572,17 @@
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="5">
+        <v>44354</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
@@ -5282,8 +5600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126BC4DC-4916-4369-8820-A1C0C5B693EC}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5323,13 +5641,17 @@
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="5">
+        <v>44354</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
